--- a/SQL/CI sample database tables.xlsx
+++ b/SQL/CI sample database tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tatvasoft\CI\database table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F999AF-2AE6-4E08-987C-A119AAAA3060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700FE23E-80AD-49E0-B33B-2851A31998CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D9DA75BC-BFD3-4510-A6A0-8CA472DE4ACA}"/>
   </bookViews>
@@ -1389,8 +1389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C4BB2C-3414-47DA-AC31-47FFB28B10EA}">
   <dimension ref="A1:S142"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="129" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="106" zoomScaleNormal="129" workbookViewId="0">
+      <selection activeCell="K107" sqref="K107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3020,7 +3020,7 @@
         <v>46</v>
       </c>
       <c r="I108" s="16" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">

--- a/SQL/CI sample database tables.xlsx
+++ b/SQL/CI sample database tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tatvasoft\CI\database table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700FE23E-80AD-49E0-B33B-2851A31998CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0912C40-4A20-4109-9CD4-3744119EC248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D9DA75BC-BFD3-4510-A6A0-8CA472DE4ACA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="122">
   <si>
     <t>CI Platform Database Table</t>
   </si>
@@ -270,9 +270,6 @@
     <t>Current_date</t>
   </si>
   <si>
-    <t>5. Location</t>
-  </si>
-  <si>
     <t>city_name</t>
   </si>
   <si>
@@ -282,9 +279,6 @@
     <t>tblLocation</t>
   </si>
   <si>
-    <t>6. Skills</t>
-  </si>
-  <si>
     <t>skill_id</t>
   </si>
   <si>
@@ -294,18 +288,12 @@
     <t>skill_name</t>
   </si>
   <si>
-    <t>7. Themes</t>
-  </si>
-  <si>
     <t>theme_name</t>
   </si>
   <si>
     <t>tblTheme</t>
   </si>
   <si>
-    <t>8. Volunteering Timesheet</t>
-  </si>
-  <si>
     <t>mission_id</t>
   </si>
   <si>
@@ -324,9 +312,6 @@
     <t>mission_action</t>
   </si>
   <si>
-    <t>9. User Mission</t>
-  </si>
-  <si>
     <t>tblUserMission</t>
   </si>
   <si>
@@ -357,9 +342,6 @@
     <t>tblVolinteeringTimesheet</t>
   </si>
   <si>
-    <t>10. Stories</t>
-  </si>
-  <si>
     <t>tblStories</t>
   </si>
   <si>
@@ -388,6 +370,27 @@
   </si>
   <si>
     <t>mission_type</t>
+  </si>
+  <si>
+    <t>5. City</t>
+  </si>
+  <si>
+    <t>6. Country</t>
+  </si>
+  <si>
+    <t>7. Skills</t>
+  </si>
+  <si>
+    <t>8. Themes</t>
+  </si>
+  <si>
+    <t>9. Volunteering Timesheet</t>
+  </si>
+  <si>
+    <t>10. User Mission</t>
+  </si>
+  <si>
+    <t>11. Stories</t>
   </si>
 </sst>
 </file>
@@ -502,7 +505,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -541,6 +544,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1001,8 +1006,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{64E449C8-2148-4F31-8692-2CD1AE269BB0}" name="Table3" displayName="Table3" ref="A49:I53" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12">
-  <autoFilter ref="A49:I53" xr:uid="{64E449C8-2148-4F31-8692-2CD1AE269BB0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{64E449C8-2148-4F31-8692-2CD1AE269BB0}" name="Table3" displayName="Table3" ref="A48:I52" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12">
+  <autoFilter ref="A48:I52" xr:uid="{64E449C8-2148-4F31-8692-2CD1AE269BB0}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{55770A9E-AA26-47CB-B218-23EE7824029D}" name="Table Name" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{D02023C9-AECC-45E0-A49C-87908D49B9E7}" name="Field"/>
@@ -1019,8 +1024,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{03D2AB26-BB25-475A-92CD-27469C05B04C}" name="Table35" displayName="Table35" ref="A59:I75" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8">
-  <autoFilter ref="A59:I75" xr:uid="{03D2AB26-BB25-475A-92CD-27469C05B04C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{03D2AB26-BB25-475A-92CD-27469C05B04C}" name="Table35" displayName="Table35" ref="A57:I73" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8">
+  <autoFilter ref="A57:I73" xr:uid="{03D2AB26-BB25-475A-92CD-27469C05B04C}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{D3F47BDA-711A-43C5-AE30-61D0AFF83002}" name="Table Name" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{6BF8C485-162B-45D4-8467-F148029DD502}" name="Field"/>
@@ -1055,8 +1060,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{ED0A0A1A-3270-4EB8-B826-B24169371E66}" name="Table8" displayName="Table8" ref="A120:I127" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2">
-  <autoFilter ref="A120:I127" xr:uid="{ED0A0A1A-3270-4EB8-B826-B24169371E66}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{ED0A0A1A-3270-4EB8-B826-B24169371E66}" name="Table8" displayName="Table8" ref="A119:I126" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2">
+  <autoFilter ref="A119:I126" xr:uid="{ED0A0A1A-3270-4EB8-B826-B24169371E66}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{7F852F71-840A-4006-A11B-37786CBE4492}" name="Table Name"/>
     <tableColumn id="2" xr3:uid="{0C8A85A1-12CF-441C-A5F0-FCF7F21B2069}" name="Field"/>
@@ -1073,8 +1078,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{C4AF3BD0-E1BB-4B09-BE9B-B0CBE1E30750}" name="Table810" displayName="Table810" ref="A133:I142" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="0">
-  <autoFilter ref="A133:I142" xr:uid="{C4AF3BD0-E1BB-4B09-BE9B-B0CBE1E30750}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{C4AF3BD0-E1BB-4B09-BE9B-B0CBE1E30750}" name="Table810" displayName="Table810" ref="A131:I140" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="0">
+  <autoFilter ref="A131:I140" xr:uid="{C4AF3BD0-E1BB-4B09-BE9B-B0CBE1E30750}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{1150EDEB-0B68-459F-878E-26EA032B36B6}" name="Table Name"/>
     <tableColumn id="2" xr3:uid="{41A11507-1F57-451D-BF5E-58BF44B50808}" name="Field"/>
@@ -1387,10 +1392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C4BB2C-3414-47DA-AC31-47FFB28B10EA}">
-  <dimension ref="A1:S142"/>
+  <dimension ref="A1:S140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="106" zoomScaleNormal="129" workbookViewId="0">
-      <selection activeCell="K107" sqref="K107"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="129" workbookViewId="0">
+      <selection activeCell="A129" sqref="A129:I140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1928,7 +1933,7 @@
         <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C29" t="s">
         <v>40</v>
@@ -2154,157 +2159,211 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>54</v>
       </c>
     </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I49" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="A49" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="4">
+        <v>20</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="13" t="s">
+      <c r="A50" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50" s="4">
-        <v>20</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
+      <c r="B50" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" t="s">
+        <v>38</v>
+      </c>
+      <c r="E50" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="A51" s="13" t="s">
         <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C51" t="s">
         <v>38</v>
       </c>
       <c r="E51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="13" t="s">
+      <c r="A52" t="s">
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
-      </c>
-      <c r="C52" t="s">
-        <v>38</v>
-      </c>
-      <c r="E52" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53" t="s">
         <v>59</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C52" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="D52" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E53" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F53" s="12" t="s">
+      <c r="E52" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="12" t="s">
         <v>60</v>
       </c>
     </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>61</v>
+      </c>
+    </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>61</v>
+      <c r="A57" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D58" s="5">
+        <v>20</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H59" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I59" s="7" t="s">
-        <v>17</v>
+      <c r="A59" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D59" s="5">
+        <v>20</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="15" t="s">
+      <c r="A60" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>37</v>
@@ -2323,61 +2382,41 @@
         <v>46</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="5" t="s">
+      <c r="A61" t="s">
         <v>62</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D61" s="5">
-        <v>20</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I61" s="5" t="s">
-        <v>47</v>
+      <c r="B61" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" t="s">
+        <v>38</v>
+      </c>
+      <c r="E61" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="5" t="s">
+      <c r="A62" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D62" s="5">
-        <v>20</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I62" s="5" t="s">
-        <v>18</v>
+      <c r="B62" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" t="s">
+        <v>38</v>
+      </c>
+      <c r="E62" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
@@ -2385,7 +2424,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C63" t="s">
         <v>38</v>
@@ -2402,13 +2441,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="C64" t="s">
         <v>38</v>
       </c>
       <c r="E64" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
         <v>11</v>
@@ -2419,16 +2458,16 @@
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="E65" t="s">
         <v>13</v>
       </c>
       <c r="F65" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
@@ -2436,16 +2475,16 @@
         <v>62</v>
       </c>
       <c r="B66" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="E66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F66" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
@@ -2453,16 +2492,16 @@
         <v>62</v>
       </c>
       <c r="B67" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="E67" t="s">
         <v>13</v>
       </c>
       <c r="F67" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
@@ -2470,7 +2509,7 @@
         <v>62</v>
       </c>
       <c r="B68" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C68" t="s">
         <v>73</v>
@@ -2483,91 +2522,92 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+      <c r="A69" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B69" t="s">
-        <v>68</v>
-      </c>
-      <c r="C69" t="s">
-        <v>8</v>
-      </c>
-      <c r="E69" t="s">
-        <v>13</v>
-      </c>
-      <c r="F69" t="s">
-        <v>14</v>
+      <c r="B69" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D69" s="5">
+        <v>5</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+      <c r="A70" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B70" t="s">
-        <v>69</v>
-      </c>
-      <c r="C70" t="s">
-        <v>73</v>
-      </c>
-      <c r="E70" t="s">
-        <v>13</v>
-      </c>
-      <c r="F70" t="s">
-        <v>14</v>
+      <c r="B70" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D70" s="5">
+        <v>5</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" s="5" t="s">
+      <c r="A71" t="s">
         <v>62</v>
       </c>
-      <c r="B71" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D71" s="5">
-        <v>5</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I71" s="5" t="s">
-        <v>47</v>
+      <c r="B71" t="s">
+        <v>70</v>
+      </c>
+      <c r="C71" t="s">
+        <v>43</v>
+      </c>
+      <c r="E71" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" s="5" t="s">
+      <c r="A72" t="s">
         <v>62</v>
       </c>
-      <c r="B72" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D72" s="5">
-        <v>5</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I72" s="5" t="s">
-        <v>47</v>
+      <c r="B72" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" t="s">
+        <v>77</v>
+      </c>
+      <c r="D72" s="5"/>
+      <c r="E72" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
@@ -2575,370 +2615,389 @@
         <v>62</v>
       </c>
       <c r="B73" t="s">
-        <v>70</v>
-      </c>
-      <c r="C73" t="s">
-        <v>43</v>
-      </c>
-      <c r="E73" t="s">
-        <v>12</v>
-      </c>
-      <c r="F73" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>62</v>
-      </c>
-      <c r="B74" t="s">
-        <v>71</v>
-      </c>
-      <c r="C74" t="s">
-        <v>77</v>
-      </c>
-      <c r="D74" s="5"/>
-      <c r="E74" t="s">
-        <v>12</v>
-      </c>
-      <c r="F74" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>62</v>
-      </c>
-      <c r="B75" t="s">
         <v>72</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C73" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D75" s="11" t="s">
+      <c r="D73" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E75" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F75" s="12" t="s">
+      <c r="E73" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" s="12" t="s">
         <v>78</v>
       </c>
     </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>115</v>
+      </c>
+    </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+      <c r="A78" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H78" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I78" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D79" s="6">
+        <v>20</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80" s="18" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" s="10" t="s">
+      <c r="C80" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" s="18">
+        <v>20</v>
+      </c>
+      <c r="E80" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G80" s="18"/>
+      <c r="H80" s="18"/>
+      <c r="I80" s="18"/>
+    </row>
+    <row r="82" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="B85" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C85" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D80" s="10" t="s">
+      <c r="D85" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E80" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F80" s="10" t="s">
+      <c r="E85" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G80" s="10" t="s">
+      <c r="G85" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H80" s="10" t="s">
+      <c r="H85" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I80" s="10" t="s">
+      <c r="I85" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" s="6" t="s">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D86" s="6">
+        <v>20</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I86" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B87" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C87" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" s="18">
+        <v>20</v>
+      </c>
+      <c r="E87" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G87" s="18"/>
+      <c r="H87" s="18"/>
+      <c r="I87" s="18"/>
+    </row>
+    <row r="90" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>117</v>
+      </c>
+      <c r="B90"/>
+      <c r="C90"/>
+      <c r="D90"/>
+      <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90"/>
+      <c r="H90"/>
+      <c r="I90"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H92" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I92" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B93" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B81" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C81" s="6" t="s">
+      <c r="C93" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D81" s="6">
-        <v>20</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F81" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G81" s="6" t="s">
+      <c r="D93" s="6">
+        <v>20</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G93" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H81" s="6" t="s">
+      <c r="H93" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I81" s="6" t="s">
+      <c r="I93" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="B82" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C82" s="16" t="s">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" s="11">
+        <v>16</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G94" s="8"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="8"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H99" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I99" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C100" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D82" s="16">
-        <v>20</v>
-      </c>
-      <c r="E82" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F82" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G82" s="16" t="s">
+      <c r="D100" s="6">
+        <v>20</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G100" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H82" s="16" t="s">
+      <c r="H100" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I82" s="16" t="s">
+      <c r="I100" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C83" s="4" t="s">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C101" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D83" s="4">
+      <c r="D101" s="11">
         <v>16</v>
       </c>
-      <c r="E83" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
-      <c r="I83" s="4"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A84" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D84" s="11">
-        <v>16</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F84" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G84" s="8"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="8"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A90" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D90" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E90" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F90" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G90" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H90" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I90" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A91" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D91" s="6">
-        <v>20</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F91" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G91" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H91" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I91" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A92" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D92" s="11">
-        <v>16</v>
-      </c>
-      <c r="E92" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F92" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G92" s="8"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="8"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A98" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B98" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D98" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E98" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F98" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G98" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H98" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I98" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A99" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D99" s="6">
-        <v>20</v>
-      </c>
-      <c r="E99" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F99" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G99" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H99" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I99" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A100" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B100" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D100" s="11">
-        <v>16</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F100" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G100" s="8"/>
-      <c r="H100" s="8"/>
-      <c r="I100" s="8"/>
+      <c r="E101" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F101" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G101" s="8"/>
+      <c r="H101" s="8"/>
+      <c r="I101" s="8"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>92</v>
-      </c>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A105"/>
+      <c r="B105"/>
+      <c r="C105"/>
+      <c r="D105"/>
+      <c r="E105"/>
+      <c r="F105"/>
+      <c r="G105"/>
+      <c r="H105"/>
+      <c r="I105"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
@@ -2969,12 +3028,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>37</v>
@@ -2998,10 +3057,10 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B108" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C108" s="16" t="s">
         <v>37</v>
@@ -3025,10 +3084,10 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B109" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C109" t="s">
         <v>73</v>
@@ -3042,10 +3101,10 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B110" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C110" t="s">
         <v>8</v>
@@ -3062,10 +3121,10 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B111" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C111" t="s">
         <v>8</v>
@@ -3082,10 +3141,10 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B112" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C112" t="s">
         <v>38</v>
@@ -3099,10 +3158,10 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B113" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C113" t="s">
         <v>8</v>
@@ -3119,13 +3178,13 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B114" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C114" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E114" t="s">
         <v>12</v>
@@ -3134,10 +3193,24 @@
         <v>0</v>
       </c>
     </row>
+    <row r="116" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A116"/>
+      <c r="B116"/>
+      <c r="C116"/>
+      <c r="D116"/>
+      <c r="E116"/>
+      <c r="F116"/>
+      <c r="G116"/>
+      <c r="H116"/>
+      <c r="I116"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>120</v>
+      </c>
+    </row>
     <row r="118" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>99</v>
-      </c>
+      <c r="A118"/>
       <c r="B118"/>
       <c r="C118"/>
       <c r="D118"/>
@@ -3147,405 +3220,405 @@
       <c r="H118"/>
       <c r="I118"/>
     </row>
-    <row r="120" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="7" t="s">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A119" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B120" s="7" t="s">
+      <c r="B119" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C120" s="7" t="s">
+      <c r="C119" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D120" s="7" t="s">
+      <c r="D119" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E120" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F120" s="7" t="s">
+      <c r="E119" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F119" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G120" s="7" t="s">
+      <c r="G119" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H120" s="7" t="s">
+      <c r="H119" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I120" s="7" t="s">
+      <c r="I119" s="7" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A120" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D120" s="6">
+        <v>20</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G120" s="6"/>
+      <c r="H120" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I120" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C121" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C121" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D121" s="6">
-        <v>20</v>
-      </c>
-      <c r="E121" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F121" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G121" s="6"/>
-      <c r="H121" s="6" t="s">
+      <c r="D121" s="5">
+        <v>20</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I121" s="6" t="s">
+      <c r="I121" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A122" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D122" s="5">
-        <v>20</v>
-      </c>
-      <c r="E122" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F122" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G122" s="5"/>
-      <c r="H122" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I122" s="5" t="s">
-        <v>47</v>
+      <c r="A122" t="s">
+        <v>95</v>
+      </c>
+      <c r="B122" t="s">
+        <v>97</v>
+      </c>
+      <c r="C122" t="s">
+        <v>73</v>
+      </c>
+      <c r="E122" t="s">
+        <v>13</v>
+      </c>
+      <c r="F122" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
+        <v>95</v>
+      </c>
+      <c r="B123" t="s">
+        <v>98</v>
+      </c>
+      <c r="C123" t="s">
         <v>100</v>
       </c>
-      <c r="B123" t="s">
-        <v>102</v>
-      </c>
-      <c r="C123" t="s">
-        <v>73</v>
+      <c r="D123">
+        <v>2</v>
       </c>
       <c r="E123" t="s">
-        <v>13</v>
-      </c>
-      <c r="F123" t="s">
-        <v>80</v>
+        <v>12</v>
+      </c>
+      <c r="F123" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B124" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C124" t="s">
-        <v>105</v>
-      </c>
-      <c r="D124">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="E124" t="s">
         <v>12</v>
       </c>
-      <c r="F124" s="3">
-        <v>0</v>
+      <c r="F124" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B125" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C125" t="s">
-        <v>73</v>
+        <v>103</v>
+      </c>
+      <c r="D125">
+        <v>5</v>
       </c>
       <c r="E125" t="s">
         <v>12</v>
       </c>
-      <c r="F125" s="3" t="s">
-        <v>11</v>
+      <c r="F125" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B126" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C126" t="s">
-        <v>108</v>
-      </c>
-      <c r="D126">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="E126" t="s">
         <v>12</v>
       </c>
-      <c r="F126" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>100</v>
-      </c>
-      <c r="B127" t="s">
-        <v>107</v>
-      </c>
-      <c r="C127" t="s">
+      <c r="F126" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A131" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F131" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H131" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I131" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A132" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D132" s="6">
+        <v>20</v>
+      </c>
+      <c r="E132" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F132" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G132" s="6"/>
+      <c r="H132" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I132" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A133" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D133" s="5">
+        <v>20</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G133" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H133" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I133" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>105</v>
+      </c>
+      <c r="B134" t="s">
+        <v>97</v>
+      </c>
+      <c r="C134" t="s">
+        <v>73</v>
+      </c>
+      <c r="E134" t="s">
+        <v>13</v>
+      </c>
+      <c r="F134" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>105</v>
+      </c>
+      <c r="B135" t="s">
+        <v>108</v>
+      </c>
+      <c r="C135" t="s">
         <v>38</v>
       </c>
-      <c r="E127" t="s">
-        <v>12</v>
-      </c>
-      <c r="F127" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A133" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B133" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C133" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D133" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E133" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F133" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G133" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H133" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I133" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A134" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B134" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C134" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D134" s="6">
-        <v>20</v>
-      </c>
-      <c r="E134" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F134" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G134" s="6"/>
-      <c r="H134" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I134" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A135" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B135" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D135" s="5">
-        <v>20</v>
-      </c>
-      <c r="E135" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F135" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G135" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H135" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I135" s="5" t="s">
-        <v>18</v>
+      <c r="E135" t="s">
+        <v>13</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B136" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C136" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="E136" t="s">
-        <v>13</v>
-      </c>
-      <c r="F136" t="s">
-        <v>80</v>
+        <v>12</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B137" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C137" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E137" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B138" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C138" t="s">
-        <v>38</v>
+        <v>100</v>
+      </c>
+      <c r="D138">
+        <v>5</v>
       </c>
       <c r="E138" t="s">
         <v>12</v>
       </c>
-      <c r="F138" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F138" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
+        <v>105</v>
+      </c>
+      <c r="B139" t="s">
         <v>111</v>
       </c>
-      <c r="B139" t="s">
-        <v>115</v>
-      </c>
       <c r="C139" t="s">
-        <v>43</v>
+        <v>8</v>
+      </c>
+      <c r="D139">
+        <v>5</v>
       </c>
       <c r="E139" t="s">
         <v>12</v>
       </c>
-      <c r="F139" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="F139" s="3">
+        <v>0</v>
+      </c>
+      <c r="G139"/>
+      <c r="H139"/>
+      <c r="I139"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>111</v>
-      </c>
-      <c r="B140" t="s">
-        <v>116</v>
-      </c>
-      <c r="C140" t="s">
-        <v>105</v>
-      </c>
-      <c r="D140">
-        <v>5</v>
-      </c>
-      <c r="E140" t="s">
-        <v>12</v>
-      </c>
-      <c r="F140" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
-        <v>111</v>
-      </c>
-      <c r="B141" t="s">
-        <v>117</v>
-      </c>
-      <c r="C141" t="s">
-        <v>8</v>
-      </c>
-      <c r="D141">
-        <v>5</v>
-      </c>
-      <c r="E141" t="s">
-        <v>12</v>
-      </c>
-      <c r="F141" s="3">
-        <v>0</v>
-      </c>
-      <c r="G141"/>
-      <c r="H141"/>
-      <c r="I141"/>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A142" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B142" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C142" s="5" t="s">
+      <c r="A140" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C140" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D142" s="5">
-        <v>20</v>
-      </c>
-      <c r="E142" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F142" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G142" s="5"/>
-      <c r="H142" s="5" t="s">
+      <c r="D140" s="5">
+        <v>20</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G140" s="5"/>
+      <c r="H140" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I142" s="5" t="s">
+      <c r="I140" s="5" t="s">
         <v>47</v>
       </c>
     </row>
